--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_16ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_16ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1802,28 +1802,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>342.9195972331849</v>
+        <v>470.1372193587899</v>
       </c>
       <c r="AB2" t="n">
-        <v>469.1977214793554</v>
+        <v>643.2624845169896</v>
       </c>
       <c r="AC2" t="n">
-        <v>424.4181494645029</v>
+        <v>581.8704158192547</v>
       </c>
       <c r="AD2" t="n">
-        <v>342919.5972331849</v>
+        <v>470137.2193587899</v>
       </c>
       <c r="AE2" t="n">
-        <v>469197.7214793554</v>
+        <v>643262.4845169897</v>
       </c>
       <c r="AF2" t="n">
         <v>5.803834975448407e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.03125</v>
       </c>
       <c r="AH2" t="n">
-        <v>424418.1494645029</v>
+        <v>581870.4158192547</v>
       </c>
     </row>
     <row r="3">
@@ -1908,28 +1908,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>271.857391273189</v>
+        <v>379.4638054393164</v>
       </c>
       <c r="AB3" t="n">
-        <v>371.9672762416224</v>
+        <v>519.199119363666</v>
       </c>
       <c r="AC3" t="n">
-        <v>336.4672414564722</v>
+        <v>469.6474841121376</v>
       </c>
       <c r="AD3" t="n">
-        <v>271857.391273189</v>
+        <v>379463.8054393164</v>
       </c>
       <c r="AE3" t="n">
-        <v>371967.2762416224</v>
+        <v>519199.119363666</v>
       </c>
       <c r="AF3" t="n">
         <v>7.111201569639635e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.08333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>336467.2414564722</v>
+        <v>469647.4841121376</v>
       </c>
     </row>
     <row r="4">
@@ -2014,28 +2014,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>256.465505634073</v>
+        <v>354.3175639486361</v>
       </c>
       <c r="AB4" t="n">
-        <v>350.9074192679479</v>
+        <v>484.7929223822383</v>
       </c>
       <c r="AC4" t="n">
-        <v>317.4173076747759</v>
+        <v>438.5249662812167</v>
       </c>
       <c r="AD4" t="n">
-        <v>256465.505634073</v>
+        <v>354317.5639486361</v>
       </c>
       <c r="AE4" t="n">
-        <v>350907.419267948</v>
+        <v>484792.9223822383</v>
       </c>
       <c r="AF4" t="n">
         <v>7.455521381211389e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.04166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>317417.3076747759</v>
+        <v>438524.9662812166</v>
       </c>
     </row>
   </sheetData>
@@ -2311,28 +2311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>295.0384808854074</v>
+        <v>411.1377508790004</v>
       </c>
       <c r="AB2" t="n">
-        <v>403.6846657265562</v>
+        <v>562.5368088700938</v>
       </c>
       <c r="AC2" t="n">
-        <v>365.1575678045996</v>
+        <v>508.8490853569013</v>
       </c>
       <c r="AD2" t="n">
-        <v>295038.4808854074</v>
+        <v>411137.7508790003</v>
       </c>
       <c r="AE2" t="n">
-        <v>403684.6657265562</v>
+        <v>562536.8088700938</v>
       </c>
       <c r="AF2" t="n">
         <v>7.042764618342351e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.375</v>
       </c>
       <c r="AH2" t="n">
-        <v>365157.5678045996</v>
+        <v>508849.0853569013</v>
       </c>
     </row>
     <row r="3">
@@ -2417,28 +2417,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>240.1623325436865</v>
+        <v>346.614207776098</v>
       </c>
       <c r="AB3" t="n">
-        <v>328.6006986004575</v>
+        <v>474.2528506188826</v>
       </c>
       <c r="AC3" t="n">
-        <v>297.2395091201046</v>
+        <v>428.9908241738721</v>
       </c>
       <c r="AD3" t="n">
-        <v>240162.3325436865</v>
+        <v>346614.207776098</v>
       </c>
       <c r="AE3" t="n">
-        <v>328600.6986004575</v>
+        <v>474252.8506188826</v>
       </c>
       <c r="AF3" t="n">
         <v>8.321522705857581e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.625</v>
       </c>
       <c r="AH3" t="n">
-        <v>297239.5091201045</v>
+        <v>428990.8241738721</v>
       </c>
     </row>
     <row r="4">
@@ -2523,28 +2523,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>240.3416495796432</v>
+        <v>346.7935248120547</v>
       </c>
       <c r="AB4" t="n">
-        <v>328.8460480799625</v>
+        <v>474.4982000983879</v>
       </c>
       <c r="AC4" t="n">
-        <v>297.4614427896359</v>
+        <v>429.2127578434035</v>
       </c>
       <c r="AD4" t="n">
-        <v>240341.6495796432</v>
+        <v>346793.5248120547</v>
       </c>
       <c r="AE4" t="n">
-        <v>328846.0480799626</v>
+        <v>474498.2000983879</v>
       </c>
       <c r="AF4" t="n">
         <v>8.313938920593065e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.65104166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>297461.4427896359</v>
+        <v>429212.7578434035</v>
       </c>
     </row>
   </sheetData>
@@ -2820,28 +2820,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>235.3913603726511</v>
+        <v>338.2001742831605</v>
       </c>
       <c r="AB2" t="n">
-        <v>322.0728439956128</v>
+        <v>462.740398792886</v>
       </c>
       <c r="AC2" t="n">
-        <v>291.3346637968427</v>
+        <v>418.5771045923208</v>
       </c>
       <c r="AD2" t="n">
-        <v>235391.3603726511</v>
+        <v>338200.1742831605</v>
       </c>
       <c r="AE2" t="n">
-        <v>322072.8439956128</v>
+        <v>462740.3987928859</v>
       </c>
       <c r="AF2" t="n">
         <v>1.13275811164443e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>291334.6637968427</v>
+        <v>418577.1045923209</v>
       </c>
     </row>
   </sheetData>
@@ -3117,28 +3117,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>231.2191826132934</v>
+        <v>335.4932886077832</v>
       </c>
       <c r="AB2" t="n">
-        <v>316.3642863217703</v>
+        <v>459.0367183924669</v>
       </c>
       <c r="AC2" t="n">
-        <v>286.1709228553789</v>
+        <v>415.2268982511698</v>
       </c>
       <c r="AD2" t="n">
-        <v>231219.1826132934</v>
+        <v>335493.2886077832</v>
       </c>
       <c r="AE2" t="n">
-        <v>316364.2863217703</v>
+        <v>459036.718392467</v>
       </c>
       <c r="AF2" t="n">
         <v>9.981694972699306e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.80729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>286170.9228553789</v>
+        <v>415226.8982511698</v>
       </c>
     </row>
     <row r="3">
@@ -3223,28 +3223,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>231.1179369708301</v>
+        <v>335.3920429653199</v>
       </c>
       <c r="AB3" t="n">
-        <v>316.2257575671096</v>
+        <v>458.8981896378062</v>
       </c>
       <c r="AC3" t="n">
-        <v>286.0456150906367</v>
+        <v>415.1015904864275</v>
       </c>
       <c r="AD3" t="n">
-        <v>231117.9369708301</v>
+        <v>335392.0429653199</v>
       </c>
       <c r="AE3" t="n">
-        <v>316225.7575671096</v>
+        <v>458898.1896378062</v>
       </c>
       <c r="AF3" t="n">
         <v>1.002808735162722e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>286045.6150906367</v>
+        <v>415101.5904864275</v>
       </c>
     </row>
   </sheetData>
@@ -3520,28 +3520,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>241.0923555324884</v>
+        <v>342.7887108277359</v>
       </c>
       <c r="AB2" t="n">
-        <v>329.873197083454</v>
+        <v>469.0186369251194</v>
       </c>
       <c r="AC2" t="n">
-        <v>298.3905621338472</v>
+        <v>424.2561564887765</v>
       </c>
       <c r="AD2" t="n">
-        <v>241092.3555324884</v>
+        <v>342788.710827736</v>
       </c>
       <c r="AE2" t="n">
-        <v>329873.1970834541</v>
+        <v>469018.6369251194</v>
       </c>
       <c r="AF2" t="n">
         <v>1.248343896466364e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.00520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>298390.5621338472</v>
+        <v>424256.1564887765</v>
       </c>
     </row>
   </sheetData>
@@ -3817,28 +3817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>299.0932575004003</v>
+        <v>425.2751651663676</v>
       </c>
       <c r="AB2" t="n">
-        <v>409.2325899753089</v>
+        <v>581.8802427967695</v>
       </c>
       <c r="AC2" t="n">
-        <v>370.1760059496119</v>
+        <v>526.346409098295</v>
       </c>
       <c r="AD2" t="n">
-        <v>299093.2575004004</v>
+        <v>425275.1651663675</v>
       </c>
       <c r="AE2" t="n">
-        <v>409232.5899753089</v>
+        <v>581880.2427967695</v>
       </c>
       <c r="AF2" t="n">
         <v>6.716251864893368e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.94791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>370176.0059496119</v>
+        <v>526346.409098295</v>
       </c>
     </row>
     <row r="3">
@@ -3923,28 +3923,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>242.3024573757582</v>
+        <v>349.0665076440749</v>
       </c>
       <c r="AB3" t="n">
-        <v>331.5289118113405</v>
+        <v>477.6081954860832</v>
       </c>
       <c r="AC3" t="n">
-        <v>299.8882577719149</v>
+        <v>432.0259396362031</v>
       </c>
       <c r="AD3" t="n">
-        <v>242302.4573757582</v>
+        <v>349066.5076440749</v>
       </c>
       <c r="AE3" t="n">
-        <v>331528.9118113405</v>
+        <v>477608.1954860832</v>
       </c>
       <c r="AF3" t="n">
         <v>8.042178444663245e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.83333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>299888.2577719149</v>
+        <v>432025.9396362031</v>
       </c>
     </row>
     <row r="4">
@@ -4029,28 +4029,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>241.8600096799694</v>
+        <v>348.6240599482861</v>
       </c>
       <c r="AB4" t="n">
-        <v>330.9235353545478</v>
+        <v>477.0028190292902</v>
       </c>
       <c r="AC4" t="n">
-        <v>299.3406575945071</v>
+        <v>431.4783394587953</v>
       </c>
       <c r="AD4" t="n">
-        <v>241860.0096799694</v>
+        <v>348624.059948286</v>
       </c>
       <c r="AE4" t="n">
-        <v>330923.5353545478</v>
+        <v>477002.8190292902</v>
       </c>
       <c r="AF4" t="n">
         <v>8.080275345033258e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.72916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>299340.6575945071</v>
+        <v>431478.3394587953</v>
       </c>
     </row>
   </sheetData>
@@ -4326,28 +4326,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>239.0459154672526</v>
+        <v>349.2859704060167</v>
       </c>
       <c r="AB2" t="n">
-        <v>327.0731675036359</v>
+        <v>477.9084741189858</v>
       </c>
       <c r="AC2" t="n">
-        <v>295.8577634472598</v>
+        <v>432.2975600978252</v>
       </c>
       <c r="AD2" t="n">
-        <v>239045.9154672526</v>
+        <v>349285.9704060167</v>
       </c>
       <c r="AE2" t="n">
-        <v>327073.1675036359</v>
+        <v>477908.4741189858</v>
       </c>
       <c r="AF2" t="n">
         <v>1.315761282713461e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.83854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>295857.7634472598</v>
+        <v>432297.5600978252</v>
       </c>
     </row>
   </sheetData>
@@ -4623,28 +4623,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>262.3325132643814</v>
+        <v>367.7380750762005</v>
       </c>
       <c r="AB2" t="n">
-        <v>358.9349179420108</v>
+        <v>503.1554577781366</v>
       </c>
       <c r="AC2" t="n">
-        <v>324.6786731419459</v>
+        <v>455.1350070709107</v>
       </c>
       <c r="AD2" t="n">
-        <v>262332.5132643814</v>
+        <v>367738.0750762005</v>
       </c>
       <c r="AE2" t="n">
-        <v>358934.9179420108</v>
+        <v>503155.4577781366</v>
       </c>
       <c r="AF2" t="n">
         <v>8.334021883525093e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.39583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>324678.6731419459</v>
+        <v>455135.0070709107</v>
       </c>
     </row>
     <row r="3">
@@ -4729,28 +4729,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>235.6968627418263</v>
+        <v>341.135578942572</v>
       </c>
       <c r="AB3" t="n">
-        <v>322.4908458149314</v>
+        <v>466.7567489488065</v>
       </c>
       <c r="AC3" t="n">
-        <v>291.7127721091949</v>
+        <v>422.2101399263432</v>
       </c>
       <c r="AD3" t="n">
-        <v>235696.8627418263</v>
+        <v>341135.5789425719</v>
       </c>
       <c r="AE3" t="n">
-        <v>322490.8458149314</v>
+        <v>466756.7489488065</v>
       </c>
       <c r="AF3" t="n">
         <v>9.079417867790199e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.57291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>291712.7721091949</v>
+        <v>422210.1399263432</v>
       </c>
     </row>
   </sheetData>
@@ -5026,28 +5026,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>280.4707385940115</v>
+        <v>396.2838237951709</v>
       </c>
       <c r="AB2" t="n">
-        <v>383.7524380400368</v>
+        <v>542.2130105249848</v>
       </c>
       <c r="AC2" t="n">
-        <v>347.1276439534244</v>
+        <v>490.4649618012194</v>
       </c>
       <c r="AD2" t="n">
-        <v>280470.7385940115</v>
+        <v>396283.8237951709</v>
       </c>
       <c r="AE2" t="n">
-        <v>383752.4380400368</v>
+        <v>542213.0105249848</v>
       </c>
       <c r="AF2" t="n">
         <v>7.451605232670876e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.64583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>347127.6439534244</v>
+        <v>490464.9618012194</v>
       </c>
     </row>
     <row r="3">
@@ -5132,28 +5132,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>238.498565089105</v>
+        <v>344.6263944380566</v>
       </c>
       <c r="AB3" t="n">
-        <v>326.3242585688603</v>
+        <v>471.5330367136391</v>
       </c>
       <c r="AC3" t="n">
-        <v>295.1803293301186</v>
+        <v>426.5305854904622</v>
       </c>
       <c r="AD3" t="n">
-        <v>238498.565089105</v>
+        <v>344626.3944380566</v>
       </c>
       <c r="AE3" t="n">
-        <v>326324.2585688604</v>
+        <v>471533.0367136392</v>
       </c>
       <c r="AF3" t="n">
         <v>8.556905467470094e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.59895833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>295180.3293301187</v>
+        <v>426530.5854904622</v>
       </c>
     </row>
   </sheetData>
@@ -5429,28 +5429,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>328.6553293860158</v>
+        <v>465.1993684155464</v>
       </c>
       <c r="AB2" t="n">
-        <v>449.6807209157746</v>
+        <v>636.5062990138349</v>
       </c>
       <c r="AC2" t="n">
-        <v>406.763824042428</v>
+        <v>575.7590311781552</v>
       </c>
       <c r="AD2" t="n">
-        <v>328655.3293860158</v>
+        <v>465199.3684155464</v>
       </c>
       <c r="AE2" t="n">
-        <v>449680.7209157746</v>
+        <v>636506.2990138349</v>
       </c>
       <c r="AF2" t="n">
         <v>6.062378394434698e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.43229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>406763.8240424281</v>
+        <v>575759.0311781552</v>
       </c>
     </row>
     <row r="3">
@@ -5535,28 +5535,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>258.2905141459084</v>
+        <v>365.6816988903915</v>
       </c>
       <c r="AB3" t="n">
-        <v>353.4044764277003</v>
+        <v>500.3418331597982</v>
       </c>
       <c r="AC3" t="n">
-        <v>319.6760492037377</v>
+        <v>452.5899108371997</v>
       </c>
       <c r="AD3" t="n">
-        <v>258290.5141459085</v>
+        <v>365681.6988903916</v>
       </c>
       <c r="AE3" t="n">
-        <v>353404.4764277003</v>
+        <v>500341.8331597982</v>
       </c>
       <c r="AF3" t="n">
         <v>7.438116443732008e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.53645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>319676.0492037377</v>
+        <v>452589.9108371997</v>
       </c>
     </row>
     <row r="4">
@@ -5641,28 +5641,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>244.7337208518914</v>
+        <v>352.0907401775968</v>
       </c>
       <c r="AB4" t="n">
-        <v>334.8554737591589</v>
+        <v>481.7460838581711</v>
       </c>
       <c r="AC4" t="n">
-        <v>302.8973373162935</v>
+        <v>435.7689137496217</v>
       </c>
       <c r="AD4" t="n">
-        <v>244733.7208518914</v>
+        <v>352090.7401775968</v>
       </c>
       <c r="AE4" t="n">
-        <v>334855.4737591589</v>
+        <v>481746.0838581711</v>
       </c>
       <c r="AF4" t="n">
         <v>7.685834203312983e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.859375</v>
       </c>
       <c r="AH4" t="n">
-        <v>302897.3373162936</v>
+        <v>435768.9137496217</v>
       </c>
     </row>
   </sheetData>
@@ -5938,28 +5938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>244.1641922622775</v>
+        <v>348.7798689170621</v>
       </c>
       <c r="AB2" t="n">
-        <v>334.0762196170214</v>
+        <v>477.2160037341762</v>
       </c>
       <c r="AC2" t="n">
-        <v>302.1924540957914</v>
+        <v>431.6711781146534</v>
       </c>
       <c r="AD2" t="n">
-        <v>244164.1922622775</v>
+        <v>348779.8689170621</v>
       </c>
       <c r="AE2" t="n">
-        <v>334076.2196170214</v>
+        <v>477216.0037341762</v>
       </c>
       <c r="AF2" t="n">
         <v>9.450745782885022e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.14583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>302192.4540957914</v>
+        <v>431671.1781146534</v>
       </c>
     </row>
     <row r="3">
@@ -6044,28 +6044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>232.6139043985077</v>
+        <v>337.2969008609965</v>
       </c>
       <c r="AB3" t="n">
-        <v>318.272606199082</v>
+        <v>461.5045002470702</v>
       </c>
       <c r="AC3" t="n">
-        <v>287.8971153619444</v>
+        <v>417.4591584691232</v>
       </c>
       <c r="AD3" t="n">
-        <v>232613.9043985077</v>
+        <v>337296.9008609965</v>
       </c>
       <c r="AE3" t="n">
-        <v>318272.606199082</v>
+        <v>461504.5002470702</v>
       </c>
       <c r="AF3" t="n">
         <v>9.694592942515821e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.59895833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>287897.1153619444</v>
+        <v>417459.1584691232</v>
       </c>
     </row>
   </sheetData>
@@ -6341,28 +6341,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>227.4053307793281</v>
+        <v>330.7814324156651</v>
       </c>
       <c r="AB2" t="n">
-        <v>311.1460059872736</v>
+        <v>452.5897488779866</v>
       </c>
       <c r="AC2" t="n">
-        <v>281.4506678721024</v>
+        <v>409.3952184587729</v>
       </c>
       <c r="AD2" t="n">
-        <v>227405.3307793281</v>
+        <v>330781.4324156651</v>
       </c>
       <c r="AE2" t="n">
-        <v>311146.0059872735</v>
+        <v>452589.7488779866</v>
       </c>
       <c r="AF2" t="n">
         <v>1.087262006829648e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.88541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>281450.6678721024</v>
+        <v>409395.2184587729</v>
       </c>
     </row>
   </sheetData>
@@ -10419,28 +10419,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>233.510748114891</v>
+        <v>335.774904482584</v>
       </c>
       <c r="AB2" t="n">
-        <v>319.4997073377895</v>
+        <v>459.4220376563849</v>
       </c>
       <c r="AC2" t="n">
-        <v>289.0071036902212</v>
+        <v>415.5754431853383</v>
       </c>
       <c r="AD2" t="n">
-        <v>233510.748114891</v>
+        <v>335774.904482584</v>
       </c>
       <c r="AE2" t="n">
-        <v>319499.7073377895</v>
+        <v>459422.0376563849</v>
       </c>
       <c r="AF2" t="n">
         <v>1.187287688106845e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>289007.1036902212</v>
+        <v>415575.4431853383</v>
       </c>
     </row>
   </sheetData>
@@ -10716,28 +10716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>256.0606970378291</v>
+        <v>374.5568324975079</v>
       </c>
       <c r="AB2" t="n">
-        <v>350.3535422876726</v>
+        <v>512.4851825043158</v>
       </c>
       <c r="AC2" t="n">
-        <v>316.9162919361266</v>
+        <v>463.5743159635742</v>
       </c>
       <c r="AD2" t="n">
-        <v>256060.6970378291</v>
+        <v>374556.8324975079</v>
       </c>
       <c r="AE2" t="n">
-        <v>350353.5422876726</v>
+        <v>512485.1825043159</v>
       </c>
       <c r="AF2" t="n">
         <v>1.375221270971456e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.53125</v>
       </c>
       <c r="AH2" t="n">
-        <v>316916.2919361267</v>
+        <v>463574.3159635742</v>
       </c>
     </row>
   </sheetData>
@@ -11013,28 +11013,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>266.1335521571048</v>
+        <v>381.5446090449303</v>
       </c>
       <c r="AB2" t="n">
-        <v>364.1356670450359</v>
+        <v>522.0461666554431</v>
       </c>
       <c r="AC2" t="n">
-        <v>329.3830700498754</v>
+        <v>472.2228132062436</v>
       </c>
       <c r="AD2" t="n">
-        <v>266133.5521571048</v>
+        <v>381544.6090449303</v>
       </c>
       <c r="AE2" t="n">
-        <v>364135.6670450359</v>
+        <v>522046.1666554431</v>
       </c>
       <c r="AF2" t="n">
         <v>7.909095049319176e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.91666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>329383.0700498754</v>
+        <v>472222.8132062436</v>
       </c>
     </row>
     <row r="3">
@@ -11119,28 +11119,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>237.3518162096827</v>
+        <v>343.1424379052939</v>
       </c>
       <c r="AB3" t="n">
-        <v>324.7552261610455</v>
+        <v>469.5026219179715</v>
       </c>
       <c r="AC3" t="n">
-        <v>293.7610431731543</v>
+        <v>424.6939506331881</v>
       </c>
       <c r="AD3" t="n">
-        <v>237351.8162096827</v>
+        <v>343142.4379052939</v>
       </c>
       <c r="AE3" t="n">
-        <v>324755.2261610455</v>
+        <v>469502.6219179715</v>
       </c>
       <c r="AF3" t="n">
         <v>8.767275428865434e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.67708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>293761.0431731544</v>
+        <v>424693.9506331881</v>
       </c>
     </row>
   </sheetData>
@@ -11416,28 +11416,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>313.2923330179456</v>
+        <v>439.8646073264246</v>
       </c>
       <c r="AB2" t="n">
-        <v>428.6603915174157</v>
+        <v>601.8421612009219</v>
       </c>
       <c r="AC2" t="n">
-        <v>387.7496453796309</v>
+        <v>544.4031900266835</v>
       </c>
       <c r="AD2" t="n">
-        <v>313292.3330179456</v>
+        <v>439864.6073264246</v>
       </c>
       <c r="AE2" t="n">
-        <v>428660.3915174157</v>
+        <v>601842.1612009219</v>
       </c>
       <c r="AF2" t="n">
         <v>6.40350635321581e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.57291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>387749.6453796308</v>
+        <v>544403.1900266835</v>
       </c>
     </row>
     <row r="3">
@@ -11522,28 +11522,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>255.1952015851217</v>
+        <v>362.1933330811989</v>
       </c>
       <c r="AB3" t="n">
-        <v>349.1693332263143</v>
+        <v>495.5688971638227</v>
       </c>
       <c r="AC3" t="n">
-        <v>315.8451021255362</v>
+        <v>448.2724971538223</v>
       </c>
       <c r="AD3" t="n">
-        <v>255195.2015851217</v>
+        <v>362193.3330811989</v>
       </c>
       <c r="AE3" t="n">
-        <v>349169.3332263143</v>
+        <v>495568.8971638227</v>
       </c>
       <c r="AF3" t="n">
         <v>7.730843980734308e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>315845.1021255362</v>
+        <v>448272.4971538223</v>
       </c>
     </row>
     <row r="4">
@@ -11628,28 +11628,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>243.4172546504791</v>
+        <v>350.4827059542606</v>
       </c>
       <c r="AB4" t="n">
-        <v>333.0542266239977</v>
+        <v>479.5459004923393</v>
       </c>
       <c r="AC4" t="n">
-        <v>301.2679986796454</v>
+        <v>433.7787127962482</v>
       </c>
       <c r="AD4" t="n">
-        <v>243417.2546504791</v>
+        <v>350482.7059542605</v>
       </c>
       <c r="AE4" t="n">
-        <v>333054.2266239977</v>
+        <v>479545.9004923393</v>
       </c>
       <c r="AF4" t="n">
         <v>7.861584253042593e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.83333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>301267.9986796454</v>
+        <v>433778.7127962481</v>
       </c>
     </row>
   </sheetData>
@@ -11925,28 +11925,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>291.2509896399603</v>
+        <v>417.5990408405759</v>
       </c>
       <c r="AB2" t="n">
-        <v>398.5024531122145</v>
+        <v>571.3774308475168</v>
       </c>
       <c r="AC2" t="n">
-        <v>360.4699382888898</v>
+        <v>516.8459707806899</v>
       </c>
       <c r="AD2" t="n">
-        <v>291250.9896399603</v>
+        <v>417599.0408405759</v>
       </c>
       <c r="AE2" t="n">
-        <v>398502.4531122145</v>
+        <v>571377.4308475169</v>
       </c>
       <c r="AF2" t="n">
         <v>1.405189381896105e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.28125</v>
       </c>
       <c r="AH2" t="n">
-        <v>360469.9382888898</v>
+        <v>516845.9707806899</v>
       </c>
     </row>
   </sheetData>
@@ -12222,28 +12222,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>229.2427022462493</v>
+        <v>333.0827232931312</v>
       </c>
       <c r="AB2" t="n">
-        <v>313.659978687422</v>
+        <v>455.7384765823239</v>
       </c>
       <c r="AC2" t="n">
-        <v>283.7247105461324</v>
+        <v>412.2434360102753</v>
       </c>
       <c r="AD2" t="n">
-        <v>229242.7022462492</v>
+        <v>333082.7232931312</v>
       </c>
       <c r="AE2" t="n">
-        <v>313659.978687422</v>
+        <v>455738.4765823239</v>
       </c>
       <c r="AF2" t="n">
         <v>1.040848038791636e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.80729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>283724.7105461324</v>
+        <v>412243.4360102753</v>
       </c>
     </row>
   </sheetData>
@@ -12519,28 +12519,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>247.6569699643586</v>
+        <v>352.7613974047058</v>
       </c>
       <c r="AB2" t="n">
-        <v>338.8551921594835</v>
+        <v>482.6637066636103</v>
       </c>
       <c r="AC2" t="n">
-        <v>306.5153282061324</v>
+        <v>436.5989599224016</v>
       </c>
       <c r="AD2" t="n">
-        <v>247656.9699643586</v>
+        <v>352761.3974047058</v>
       </c>
       <c r="AE2" t="n">
-        <v>338855.1921594835</v>
+        <v>482663.7066636103</v>
       </c>
       <c r="AF2" t="n">
         <v>8.92646760544726e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.61458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>306515.3282061325</v>
+        <v>436598.9599224016</v>
       </c>
     </row>
     <row r="3">
@@ -12625,28 +12625,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>234.2640112240154</v>
+        <v>339.3342732455816</v>
       </c>
       <c r="AB3" t="n">
-        <v>320.5303551553159</v>
+        <v>464.2921230261855</v>
       </c>
       <c r="AC3" t="n">
-        <v>289.9393879265666</v>
+        <v>419.980734442653</v>
       </c>
       <c r="AD3" t="n">
-        <v>234264.0112240154</v>
+        <v>339334.2732455816</v>
       </c>
       <c r="AE3" t="n">
-        <v>320530.3551553159</v>
+        <v>464292.1230261855</v>
       </c>
       <c r="AF3" t="n">
         <v>9.356608847067084e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.625</v>
       </c>
       <c r="AH3" t="n">
-        <v>289939.3879265665</v>
+        <v>419980.734442653</v>
       </c>
     </row>
   </sheetData>
